--- a/opm_hero_property/heroes/98.xlsx
+++ b/opm_hero_property/heroes/98.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11150</v>
       </c>
       <c r="D4" t="n">
-        <v>11150</v>
+        <v>11385</v>
       </c>
       <c r="E4" t="n">
         <v>250</v>
@@ -1304,7 +1305,7 @@
         <v>12453</v>
       </c>
       <c r="D5" t="n">
-        <v>12453</v>
+        <v>12954</v>
       </c>
       <c r="E5" t="n">
         <v>374</v>
@@ -1411,7 +1412,7 @@
         <v>13987</v>
       </c>
       <c r="D6" t="n">
-        <v>13987</v>
+        <v>14801</v>
       </c>
       <c r="E6" t="n">
         <v>513</v>
@@ -1518,7 +1519,7 @@
         <v>15750</v>
       </c>
       <c r="D7" t="n">
-        <v>15750</v>
+        <v>18655</v>
       </c>
       <c r="E7" t="n">
         <v>961</v>
@@ -1625,7 +1626,7 @@
         <v>17744</v>
       </c>
       <c r="D8" t="n">
-        <v>17744</v>
+        <v>23987</v>
       </c>
       <c r="E8" t="n">
         <v>1424</v>
@@ -1732,7 +1733,7 @@
         <v>20044</v>
       </c>
       <c r="D9" t="n">
-        <v>20044</v>
+        <v>31165</v>
       </c>
       <c r="E9" t="n">
         <v>1880</v>
@@ -1839,7 +1840,7 @@
         <v>21270</v>
       </c>
       <c r="D10" t="n">
-        <v>21270</v>
+        <v>37143</v>
       </c>
       <c r="E10" t="n">
         <v>2222</v>
@@ -1946,7 +1947,7 @@
         <v>22727</v>
       </c>
       <c r="D11" t="n">
-        <v>22727</v>
+        <v>44483</v>
       </c>
       <c r="E11" t="n">
         <v>2592</v>
@@ -2053,7 +2054,7 @@
         <v>25794</v>
       </c>
       <c r="D12" t="n">
-        <v>25794</v>
+        <v>57547</v>
       </c>
       <c r="E12" t="n">
         <v>3190</v>
@@ -2160,7 +2161,7 @@
         <v>26407</v>
       </c>
       <c r="D13" t="n">
-        <v>26407</v>
+        <v>59394</v>
       </c>
       <c r="E13" t="n">
         <v>3589</v>
@@ -2267,7 +2268,7 @@
         <v>27021</v>
       </c>
       <c r="D14" t="n">
-        <v>27021</v>
+        <v>61240</v>
       </c>
       <c r="E14" t="n">
         <v>3987</v>
@@ -2374,7 +2375,7 @@
         <v>27634</v>
       </c>
       <c r="D15" t="n">
-        <v>27634</v>
+        <v>63087</v>
       </c>
       <c r="E15" t="n">
         <v>4386</v>
@@ -2481,7 +2482,7 @@
         <v>28247</v>
       </c>
       <c r="D16" t="n">
-        <v>28247</v>
+        <v>64933</v>
       </c>
       <c r="E16" t="n">
         <v>4785</v>
@@ -2588,7 +2589,7 @@
         <v>28861</v>
       </c>
       <c r="D17" t="n">
-        <v>28861</v>
+        <v>66779</v>
       </c>
       <c r="E17" t="n">
         <v>5184</v>
@@ -6874,4 +6875,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>98</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29675.5912576</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5402.2413892</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2178.5129406</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2900</v>
+      </c>
+      <c r="X2" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>98</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>42139.7111566</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7773.8984896</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3351.276674</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2900</v>
+      </c>
+      <c r="X3" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>98</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>77566.47356</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13705.503</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7031.955884000001</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2900</v>
+      </c>
+      <c r="X4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>98</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>77566.47356</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13705.503</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7031.955884000001</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2900</v>
+      </c>
+      <c r="X5" t="n">
+        <v>870</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1270</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>98</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>68065.38716</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12468.183</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6087.758924000001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X6" t="n">
+        <v>870</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1270</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>286343.6545808</v>
+      </c>
+      <c r="U7" t="n">
+        <v>47801.676736</v>
+      </c>
+      <c r="V7" t="n">
+        <v>30442.4127134</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4180</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>243025.0694288</v>
+      </c>
+      <c r="U8" t="n">
+        <v>42586.600896</v>
+      </c>
+      <c r="V8" t="n">
+        <v>25468.2080174</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>253854.7157168</v>
+      </c>
+      <c r="U9" t="n">
+        <v>43890.369856</v>
+      </c>
+      <c r="V9" t="n">
+        <v>26711.7591914</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3580</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>264684.3620048</v>
+      </c>
+      <c r="U10" t="n">
+        <v>45194.138816</v>
+      </c>
+      <c r="V10" t="n">
+        <v>27955.3103654</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3780</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>98</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>275514.0082928</v>
+      </c>
+      <c r="U11" t="n">
+        <v>46497.907776</v>
+      </c>
+      <c r="V11" t="n">
+        <v>29198.8615394</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3980</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>98</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>275514.0082928</v>
+      </c>
+      <c r="U12" t="n">
+        <v>46497.907776</v>
+      </c>
+      <c r="V12" t="n">
+        <v>29198.8615394</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3980</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1580</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>98</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>412985.9410924</v>
+      </c>
+      <c r="U13" t="n">
+        <v>69406.74280559999</v>
+      </c>
+      <c r="V13" t="n">
+        <v>48675.73467199999</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3980</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2440</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>98</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>412985.9410924</v>
+      </c>
+      <c r="U14" t="n">
+        <v>69406.74280559999</v>
+      </c>
+      <c r="V14" t="n">
+        <v>48675.73467199999</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3980</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1790</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>98</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1027179.1169748</v>
+      </c>
+      <c r="U15" t="n">
+        <v>170642.1445456</v>
+      </c>
+      <c r="V15" t="n">
+        <v>132198.1854</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3980</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2070</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>98</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5252781.8766984</v>
+      </c>
+      <c r="U16" t="n">
+        <v>883058.9660052001</v>
+      </c>
+      <c r="V16" t="n">
+        <v>680790.0061138</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3980</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2630</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>98</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8602075.679357199</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1444206.5140108</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1104556.5485816</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3980</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3540</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4260</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>98</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>227994.65449</v>
+      </c>
+      <c r="U18" t="n">
+        <v>43430.889644</v>
+      </c>
+      <c r="V18" t="n">
+        <v>23374.0579464</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X18" t="n">
+        <v>870</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1270</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>98</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>308520.4963936</v>
+      </c>
+      <c r="U19" t="n">
+        <v>55660.7861032</v>
+      </c>
+      <c r="V19" t="n">
+        <v>33004.3607844</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3580</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1580</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2300</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>98</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>398136.8521072</v>
+      </c>
+      <c r="U20" t="n">
+        <v>69059.09025360001</v>
+      </c>
+      <c r="V20" t="n">
+        <v>46815.32551379999</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3780</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2370</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>98</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>460320.9074998</v>
+      </c>
+      <c r="U21" t="n">
+        <v>80604.0769288</v>
+      </c>
+      <c r="V21" t="n">
+        <v>55787.605704</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3980</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1790</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>98</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>533043.5721199999</v>
+      </c>
+      <c r="U22" t="n">
+        <v>97658.61124720001</v>
+      </c>
+      <c r="V22" t="n">
+        <v>67435.7505642</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3980</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2070</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>98</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>681840.6594067999</v>
+      </c>
+      <c r="U23" t="n">
+        <v>132457.1408324</v>
+      </c>
+      <c r="V23" t="n">
+        <v>91159.4036914</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3980</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2630</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/98.xlsx
+++ b/opm_hero_property/heroes/98.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7077,6 +7077,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7085,31 +7125,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7121,106 +7161,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29675.5912576</v>
+        <v>5387658.8766984</v>
       </c>
       <c r="U2" t="n">
-        <v>5402.2413892</v>
+        <v>906786.9660052001</v>
       </c>
       <c r="V2" t="n">
-        <v>2178.5129406</v>
+        <v>702630.0061138</v>
       </c>
       <c r="W2" t="n">
-        <v>2900</v>
+        <v>3980</v>
       </c>
       <c r="X2" t="n">
-        <v>800</v>
+        <v>2630</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="AA2" t="n">
-        <v>1200</v>
+        <v>3350</v>
       </c>
       <c r="AB2" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11286490.583745</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1813423.59354363</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15700849.47728863</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -7232,73 +7296,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>42139.7111566</v>
+        <v>681840.6594067999</v>
       </c>
       <c r="U3" t="n">
-        <v>7773.8984896</v>
+        <v>132457.1408324</v>
       </c>
       <c r="V3" t="n">
-        <v>3351.276674</v>
+        <v>91159.4036914</v>
       </c>
       <c r="W3" t="n">
-        <v>2900</v>
+        <v>3980</v>
       </c>
       <c r="X3" t="n">
-        <v>800</v>
+        <v>2630</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="AA3" t="n">
-        <v>1200</v>
+        <v>3350</v>
       </c>
       <c r="AB3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1278908.049665</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>206420.20271091</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2136199.50237591</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7307,16 +7395,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -7325,10 +7413,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7343,10 +7431,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7357,50 +7445,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>77566.47356</v>
+        <v>7524.1856</v>
       </c>
       <c r="U4" t="n">
-        <v>13705.503</v>
+        <v>1644.8603</v>
       </c>
       <c r="V4" t="n">
-        <v>7031.955884000001</v>
+        <v>563.2961</v>
       </c>
       <c r="W4" t="n">
-        <v>2900</v>
+        <v>600</v>
       </c>
       <c r="X4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7410,6 +7498,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19389.824245</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4456.85</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23846.674245</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7418,16 +7530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7436,13 +7548,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7454,10 +7566,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7468,59 +7580,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>77566.47356</v>
+        <v>19969.4921</v>
       </c>
       <c r="U5" t="n">
-        <v>13705.503</v>
+        <v>4098.3664</v>
       </c>
       <c r="V5" t="n">
-        <v>7031.955884000001</v>
+        <v>1682.519</v>
       </c>
       <c r="W5" t="n">
-        <v>2900</v>
+        <v>777</v>
       </c>
       <c r="X5" t="n">
-        <v>870</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="n">
-        <v>1270</v>
+        <v>480</v>
       </c>
       <c r="AB5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>48863.95451</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11828.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60692.75451000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7544,16 +7680,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7575,39 +7711,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>68065.38716</v>
+        <v>56827.86</v>
       </c>
       <c r="U6" t="n">
-        <v>12468.183</v>
+        <v>10557.25</v>
       </c>
       <c r="V6" t="n">
-        <v>6087.758924000001</v>
+        <v>5264.154</v>
       </c>
       <c r="W6" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="X6" t="n">
-        <v>870</v>
+        <v>600</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AA6" t="n">
-        <v>1270</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7622,16 +7758,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>116393.6705</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9640.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>164876.7705</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7640,31 +7800,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7676,10 +7836,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7690,59 +7850,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>286343.6545808</v>
+        <v>56827.86</v>
       </c>
       <c r="U7" t="n">
-        <v>47801.676736</v>
+        <v>10557.25</v>
       </c>
       <c r="V7" t="n">
-        <v>30442.4127134</v>
+        <v>5264.154</v>
       </c>
       <c r="W7" t="n">
-        <v>4180</v>
+        <v>1300</v>
       </c>
       <c r="X7" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="AA7" t="n">
-        <v>2370</v>
+        <v>970</v>
       </c>
       <c r="AB7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>116393.6705</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>165051.7705</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7751,31 +7935,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7787,10 +7971,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7801,59 +7985,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>243025.0694288</v>
+        <v>57065.38716</v>
       </c>
       <c r="U8" t="n">
-        <v>42586.600896</v>
+        <v>10588.183</v>
       </c>
       <c r="V8" t="n">
-        <v>25468.2080174</v>
+        <v>5287.758924000001</v>
       </c>
       <c r="W8" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X8" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="AA8" t="n">
-        <v>2370</v>
+        <v>970</v>
       </c>
       <c r="AB8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>116393.6705</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>586.6931730000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>165638.463673</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7877,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7886,7 +8094,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7908,24 +8116,24 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>253854.7157168</v>
+        <v>241153.1048</v>
       </c>
       <c r="U9" t="n">
-        <v>43890.369856</v>
+        <v>42613.224</v>
       </c>
       <c r="V9" t="n">
-        <v>26711.7591914</v>
+        <v>25470.8529</v>
       </c>
       <c r="W9" t="n">
-        <v>3580</v>
+        <v>3380</v>
       </c>
       <c r="X9" t="n">
         <v>1650</v>
@@ -7958,13 +8166,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>525392.9045750001</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>694439.754575</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7988,7 +8220,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7997,7 +8229,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8019,24 +8251,24 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>264684.3620048</v>
+        <v>242236.0694288</v>
       </c>
       <c r="U10" t="n">
-        <v>45194.138816</v>
+        <v>42743.600896</v>
       </c>
       <c r="V10" t="n">
-        <v>27955.3103654</v>
+        <v>25595.2080174</v>
       </c>
       <c r="W10" t="n">
-        <v>3780</v>
+        <v>3380</v>
       </c>
       <c r="X10" t="n">
         <v>1650</v>
@@ -8069,13 +8301,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>525392.9045750001</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2697.60713625</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>697137.36171125</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8099,7 +8355,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -8108,7 +8364,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8130,24 +8386,24 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>275514.0082928</v>
+        <v>253065.7157168</v>
       </c>
       <c r="U11" t="n">
-        <v>46497.907776</v>
+        <v>44047.369856</v>
       </c>
       <c r="V11" t="n">
-        <v>29198.8615394</v>
+        <v>26838.7591914</v>
       </c>
       <c r="W11" t="n">
-        <v>3980</v>
+        <v>3580</v>
       </c>
       <c r="X11" t="n">
         <v>1650</v>
@@ -8180,13 +8436,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>525392.9045750001</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>30003.67849875</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>724443.4330737501</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8210,13 +8490,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -8241,27 +8521,27 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>275514.0082928</v>
+        <v>263895.3620048</v>
       </c>
       <c r="U12" t="n">
-        <v>46497.907776</v>
+        <v>45351.138816</v>
       </c>
       <c r="V12" t="n">
-        <v>29198.8615394</v>
+        <v>28082.3103654</v>
       </c>
       <c r="W12" t="n">
-        <v>3980</v>
+        <v>3780</v>
       </c>
       <c r="X12" t="n">
-        <v>1580</v>
+        <v>1650</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
@@ -8270,7 +8550,7 @@
         <v>1440</v>
       </c>
       <c r="AA12" t="n">
-        <v>2300</v>
+        <v>2370</v>
       </c>
       <c r="AB12" t="n">
         <v>720</v>
@@ -8288,7 +8568,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8298,6 +8578,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>525392.9045750001</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>57309.74986125001</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>751749.50443625</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8306,10 +8610,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8324,13 +8628,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8342,10 +8646,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8356,23 +8660,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>412985.9410924</v>
+        <v>274725.0082928</v>
       </c>
       <c r="U13" t="n">
-        <v>69406.74280559999</v>
+        <v>46654.907776</v>
       </c>
       <c r="V13" t="n">
-        <v>48675.73467199999</v>
+        <v>29325.8615394</v>
       </c>
       <c r="W13" t="n">
         <v>3980</v>
       </c>
       <c r="X13" t="n">
-        <v>1720</v>
+        <v>1650</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8381,7 +8685,7 @@
         <v>1440</v>
       </c>
       <c r="AA13" t="n">
-        <v>2440</v>
+        <v>2370</v>
       </c>
       <c r="AB13" t="n">
         <v>720</v>
@@ -8390,25 +8694,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>525392.9045750001</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>84615.82122375</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>779055.57579875</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8417,10 +8745,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8435,13 +8763,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8453,10 +8781,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8467,23 +8795,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>412985.9410924</v>
+        <v>274725.0082928</v>
       </c>
       <c r="U14" t="n">
-        <v>69406.74280559999</v>
+        <v>46654.907776</v>
       </c>
       <c r="V14" t="n">
-        <v>48675.73467199999</v>
+        <v>29325.8615394</v>
       </c>
       <c r="W14" t="n">
         <v>3980</v>
       </c>
       <c r="X14" t="n">
-        <v>1790</v>
+        <v>1580</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8492,7 +8820,7 @@
         <v>1440</v>
       </c>
       <c r="AA14" t="n">
-        <v>2510</v>
+        <v>2300</v>
       </c>
       <c r="AB14" t="n">
         <v>720</v>
@@ -8501,25 +8829,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>525392.9045750001</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>84615.82122375</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39443.60000000001</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>778880.57579875</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8528,10 +8880,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8546,13 +8898,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8564,10 +8916,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8578,23 +8930,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1027179.1169748</v>
+        <v>415485.9410924</v>
       </c>
       <c r="U15" t="n">
-        <v>170642.1445456</v>
+        <v>70214.74280559999</v>
       </c>
       <c r="V15" t="n">
-        <v>132198.1854</v>
+        <v>49449.73467199999</v>
       </c>
       <c r="W15" t="n">
         <v>3980</v>
       </c>
       <c r="X15" t="n">
-        <v>2070</v>
+        <v>1720</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8603,7 +8955,7 @@
         <v>1440</v>
       </c>
       <c r="AA15" t="n">
-        <v>2790</v>
+        <v>2440</v>
       </c>
       <c r="AB15" t="n">
         <v>720</v>
@@ -8612,25 +8964,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>808312.24626</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>130301.59455504</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>112125.4</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1198266.64081504</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8639,10 +9015,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8657,13 +9033,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8675,10 +9051,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8689,23 +9065,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5252781.8766984</v>
+        <v>415485.9410924</v>
       </c>
       <c r="U16" t="n">
-        <v>883058.9660052001</v>
+        <v>70214.74280559999</v>
       </c>
       <c r="V16" t="n">
-        <v>680790.0061138</v>
+        <v>49449.73467199999</v>
       </c>
       <c r="W16" t="n">
         <v>3980</v>
       </c>
       <c r="X16" t="n">
-        <v>2630</v>
+        <v>1790</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8714,7 +9090,7 @@
         <v>1440</v>
       </c>
       <c r="AA16" t="n">
-        <v>3350</v>
+        <v>2510</v>
       </c>
       <c r="AB16" t="n">
         <v>720</v>
@@ -8723,25 +9099,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>808312.24626</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>130301.59455504</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112300.4</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1198441.64081504</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8750,10 +9150,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8768,13 +9168,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8786,10 +9186,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8800,23 +9200,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8602075.679357199</v>
+        <v>1064674.1169748</v>
       </c>
       <c r="U17" t="n">
-        <v>1444206.5140108</v>
+        <v>177499.1445456</v>
       </c>
       <c r="V17" t="n">
-        <v>1104556.5485816</v>
+        <v>138831.1854</v>
       </c>
       <c r="W17" t="n">
         <v>3980</v>
       </c>
       <c r="X17" t="n">
-        <v>3540</v>
+        <v>2070</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8825,7 +9225,7 @@
         <v>1440</v>
       </c>
       <c r="AA17" t="n">
-        <v>4260</v>
+        <v>2790</v>
       </c>
       <c r="AB17" t="n">
         <v>720</v>
@@ -8834,58 +9234,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1850291.40716</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>298735.77322944</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>683503.6000000001</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3102535.53038944</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8897,106 +9321,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>227994.65449</v>
+        <v>5387658.8766984</v>
       </c>
       <c r="U18" t="n">
-        <v>43430.889644</v>
+        <v>906786.9660052001</v>
       </c>
       <c r="V18" t="n">
-        <v>23374.0579464</v>
+        <v>702630.0061138</v>
       </c>
       <c r="W18" t="n">
-        <v>2100</v>
+        <v>3980</v>
       </c>
       <c r="X18" t="n">
-        <v>870</v>
+        <v>2630</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="AA18" t="n">
-        <v>1270</v>
+        <v>3350</v>
       </c>
       <c r="AB18" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>400</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>256</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11286490.583745</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1813423.59354363</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15700849.47728863</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9008,37 +9456,37 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>308520.4963936</v>
+        <v>8911793.679357199</v>
       </c>
       <c r="U19" t="n">
-        <v>55660.7861032</v>
+        <v>1498239.5140108</v>
       </c>
       <c r="V19" t="n">
-        <v>33004.3607844</v>
+        <v>1153788.5485816</v>
       </c>
       <c r="W19" t="n">
-        <v>3580</v>
+        <v>3980</v>
       </c>
       <c r="X19" t="n">
-        <v>1580</v>
+        <v>3540</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
@@ -9047,7 +9495,7 @@
         <v>1440</v>
       </c>
       <c r="AA19" t="n">
-        <v>2300</v>
+        <v>4260</v>
       </c>
       <c r="AB19" t="n">
         <v>720</v>
@@ -9056,25 +9504,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18315880.95413</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2941548.92624592</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3469133.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>25902443.48037592</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9083,31 +9555,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9119,73 +9591,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>398136.8521072</v>
+        <v>216994.65449</v>
       </c>
       <c r="U20" t="n">
-        <v>69059.09025360001</v>
+        <v>41550.889644</v>
       </c>
       <c r="V20" t="n">
-        <v>46815.32551379999</v>
+        <v>22574.0579464</v>
       </c>
       <c r="W20" t="n">
-        <v>3780</v>
+        <v>1300</v>
       </c>
       <c r="X20" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="AA20" t="n">
-        <v>2370</v>
+        <v>970</v>
       </c>
       <c r="AB20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>554583.1412000001</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2819.7850254</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33824.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>638606.6262254001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9194,31 +9690,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9230,73 +9726,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>460320.9074998</v>
+        <v>285420.4963936</v>
       </c>
       <c r="U21" t="n">
-        <v>80604.0769288</v>
+        <v>51712.7861032</v>
       </c>
       <c r="V21" t="n">
-        <v>55787.605704</v>
+        <v>31324.3607844</v>
       </c>
       <c r="W21" t="n">
-        <v>3980</v>
+        <v>1900</v>
       </c>
       <c r="X21" t="n">
-        <v>1790</v>
+        <v>1040</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="AA21" t="n">
-        <v>2510</v>
+        <v>1490</v>
       </c>
       <c r="AB21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>656994.8589700001</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49023</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>37328.23604598</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>67649.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>830023.79501598</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9305,10 +9825,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9320,16 +9840,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9341,37 +9861,37 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>533043.5721199999</v>
+        <v>398136.8521072</v>
       </c>
       <c r="U22" t="n">
-        <v>97658.61124720001</v>
+        <v>69059.09025360001</v>
       </c>
       <c r="V22" t="n">
-        <v>67435.7505642</v>
+        <v>46815.32551379999</v>
       </c>
       <c r="W22" t="n">
-        <v>3980</v>
+        <v>3780</v>
       </c>
       <c r="X22" t="n">
-        <v>2070</v>
+        <v>1650</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
@@ -9380,7 +9900,7 @@
         <v>1440</v>
       </c>
       <c r="AA22" t="n">
-        <v>2790</v>
+        <v>2370</v>
       </c>
       <c r="AB22" t="n">
         <v>720</v>
@@ -9389,25 +9909,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>831330.723185</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>90751.67337639</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>97518.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1157290.69656139</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9416,10 +9960,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9434,13 +9978,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9452,10 +9996,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9466,23 +10010,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>681840.6594067999</v>
+        <v>460320.9074998</v>
       </c>
       <c r="U23" t="n">
-        <v>132457.1408324</v>
+        <v>80604.0769288</v>
       </c>
       <c r="V23" t="n">
-        <v>91159.4036914</v>
+        <v>55787.605704</v>
       </c>
       <c r="W23" t="n">
         <v>3980</v>
       </c>
       <c r="X23" t="n">
-        <v>2630</v>
+        <v>1790</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9491,7 +10035,7 @@
         <v>1440</v>
       </c>
       <c r="AA23" t="n">
-        <v>3350</v>
+        <v>2510</v>
       </c>
       <c r="AB23" t="n">
         <v>720</v>
@@ -9500,25 +10044,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>907833.1910799999</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>146375.73002652</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>152526</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1351405.77110652</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>98</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>533043.5721199999</v>
+      </c>
+      <c r="U24" t="n">
+        <v>97658.61124720001</v>
+      </c>
+      <c r="V24" t="n">
+        <v>67435.7505642</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3980</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2070</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1028470.125095</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>165909.98037483</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>257621.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1609481.55546983</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>98</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>681840.6594067999</v>
+      </c>
+      <c r="U25" t="n">
+        <v>132457.1408324</v>
+      </c>
+      <c r="V25" t="n">
+        <v>91159.4036914</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3980</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2630</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1278908.049665</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>206420.20271091</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2136199.50237591</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/98.xlsx
+++ b/opm_hero_property/heroes/98.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,45406;31,15984;41,3844</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,68170;31,23977;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5511;31,1932;41,527</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,8274;31,2898;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>45406.01070000001</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>15984.7842</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>3844.638</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>68170.8771</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>23977.1763</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>5511.1656</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1932.0378</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>527.534</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>8274.256800000001</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>2898.0567</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,45410;31,15987;41,3845</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,68177;31,23980;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5515;31,1934;41,528</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,8281;31,2901;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>45410.59820000001</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>15987.3076</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>3845.177</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>68177.76460000001</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>23980.9614</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>5515.753100000001</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1934.5612</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>528.073</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>8281.1443</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>2901.8418</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,48589;31,17798;41,4361</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,72950;31,26697;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5858;31,2129;41,585</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,8795;31,3194;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>48589.54171114001</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>17798.303699</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>4361.6732355</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>72950.51085242</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>26697.4555485</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>5858.173124530001</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>2129.491463</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>585.1503315000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>8795.240849090002</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>3194.2371945</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,52188;31,19849;41,4946</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,78353;31,29774;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6245;31,2350;41,649</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,9376;31,3525;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>52188.12428184001</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>19849.98256978</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>4946.7644142</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>78353.28740952001</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>29774.97385467</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>6245.22066468</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>2350.09747786</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>649.7878926</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>9376.339472039999</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>3525.14621679</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53811;31,11426;41,4025</t>
+          <t>21,56425;31,22265;41,5635</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53811;31,11426;41,4025</t>
+          <t>21,84715;31,33397;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26905;31,5713;41,2012</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6390;31,1339;41,518</t>
+          <t>21,6700;31,2609;41,725</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6390;31,1339;41,518</t>
+          <t>21,10060;31,3914;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3195;31,669;41,259</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53811</v>
+        <v>56425.70026336001</v>
       </c>
       <c r="O6" t="n">
-        <v>11426</v>
+        <v>22265.21506462</v>
       </c>
       <c r="P6" t="n">
-        <v>4025</v>
+        <v>5635.4195723</v>
       </c>
       <c r="Q6" t="n">
-        <v>53811</v>
+        <v>84715.42464608001</v>
       </c>
       <c r="R6" t="n">
-        <v>11426</v>
+        <v>33397.82259693</v>
       </c>
       <c r="S6" t="n">
-        <v>4025</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>26905</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5713</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2012</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6390</v>
+        <v>6700.765330720001</v>
       </c>
       <c r="X6" t="n">
-        <v>1339</v>
+        <v>2609.63867494</v>
       </c>
       <c r="Y6" t="n">
-        <v>518</v>
+        <v>725.7739419000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>6390</v>
+        <v>10060.27710416</v>
       </c>
       <c r="AA6" t="n">
-        <v>1339</v>
+        <v>3914.45801241</v>
       </c>
       <c r="AB6" t="n">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3195</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>669</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,60363;31,12852;41,5052</t>
+          <t>21,63295;31,25044;41,7073</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,60363;31,12852;41,5052</t>
+          <t>21,95029;31,37566;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,30181;31,6426;41,2526</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7101;31,1494;41,632</t>
+          <t>21,7446;31,2911;41,885</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7101;31,1494;41,632</t>
+          <t>21,11179;31,4367;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3550;31,747;41,316</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>60363</v>
+        <v>63295.35772426</v>
       </c>
       <c r="O7" t="n">
-        <v>12852</v>
+        <v>25044.606895</v>
       </c>
       <c r="P7" t="n">
-        <v>5052</v>
+        <v>7073.6090565</v>
       </c>
       <c r="Q7" t="n">
-        <v>60363</v>
+        <v>95029.27004377999</v>
       </c>
       <c r="R7" t="n">
-        <v>12852</v>
+        <v>37566.9103425</v>
       </c>
       <c r="S7" t="n">
-        <v>5052</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>30181</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6426</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2526</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7101</v>
+        <v>7446.564068770001</v>
       </c>
       <c r="X7" t="n">
-        <v>1494</v>
+        <v>2911.531315</v>
       </c>
       <c r="Y7" t="n">
-        <v>632</v>
+        <v>885.5515445</v>
       </c>
       <c r="Z7" t="n">
-        <v>7101</v>
+        <v>11179.99128581</v>
       </c>
       <c r="AA7" t="n">
-        <v>1494</v>
+        <v>4367.296972499999</v>
       </c>
       <c r="AB7" t="n">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3550</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,68827;31,14465;41,6473</t>
+          <t>21,72170;31,28186;41,9062</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,68827;31,14465;41,6473</t>
+          <t>21,108353;31,42279;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,34413;31,7232;41,3236</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8016;31,1668;41,790</t>
+          <t>21,8406;31,3250;41,1106</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,8016;31,1668;41,790</t>
+          <t>21,12620;31,4876;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,4008;31,834;41,395</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>68827</v>
+        <v>72170.18713242</v>
       </c>
       <c r="O8" t="n">
-        <v>14465</v>
+        <v>28186.18834944</v>
       </c>
       <c r="P8" t="n">
-        <v>6473</v>
+        <v>9062.793280100001</v>
       </c>
       <c r="Q8" t="n">
-        <v>68827</v>
+        <v>108353.60520426</v>
       </c>
       <c r="R8" t="n">
-        <v>14465</v>
+        <v>42279.28252416</v>
       </c>
       <c r="S8" t="n">
-        <v>6473</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>34413</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>7232</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3236</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>8016</v>
+        <v>8406.256209090001</v>
       </c>
       <c r="X8" t="n">
-        <v>1668</v>
+        <v>3250.99513728</v>
       </c>
       <c r="Y8" t="n">
-        <v>790</v>
+        <v>1106.0559153</v>
       </c>
       <c r="Z8" t="n">
-        <v>8016</v>
+        <v>12620.83697877</v>
       </c>
       <c r="AA8" t="n">
-        <v>1668</v>
+        <v>4876.49270592</v>
       </c>
       <c r="AB8" t="n">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>4008</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>834</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,79713;31,16323;41,8385</t>
+          <t>21,83585;31,31807;41,11739</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,79713;31,16323;41,8385</t>
+          <t>21,125491;31,47711;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,39856;31,8161;41,4192</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9189;31,1868;41,1001</t>
+          <t>21,9636;31,3640;41,1402</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9189;31,1868;41,1001</t>
+          <t>21,14467;31,5460;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4594;31,934;41,500</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>79713</v>
+        <v>83585.13737664001</v>
       </c>
       <c r="O9" t="n">
-        <v>16323</v>
+        <v>31807.83954744</v>
       </c>
       <c r="P9" t="n">
-        <v>8385</v>
+        <v>11739.8681295</v>
       </c>
       <c r="Q9" t="n">
-        <v>79713</v>
+        <v>125491.58227392</v>
       </c>
       <c r="R9" t="n">
-        <v>16323</v>
+        <v>47711.75932116</v>
       </c>
       <c r="S9" t="n">
-        <v>8385</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39856</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8161</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4192</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9189</v>
+        <v>9636.052499280002</v>
       </c>
       <c r="X9" t="n">
-        <v>1868</v>
+        <v>3640.51466328</v>
       </c>
       <c r="Y9" t="n">
-        <v>1001</v>
+        <v>1402.1135135</v>
       </c>
       <c r="Z9" t="n">
-        <v>9189</v>
+        <v>14467.20688584</v>
       </c>
       <c r="AA9" t="n">
-        <v>1868</v>
+        <v>5460.77199492</v>
       </c>
       <c r="AB9" t="n">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4594</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>934</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,87874;31,17314;41,9978</t>
+          <t>21,92143;31,33738;41,13969</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,87874;31,17314;41,9978</t>
+          <t>21,138340;31,50607;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,43937;31,8657;41,4989</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10068;31,1974;41,1177</t>
+          <t>21,10558;31,3847;41,1648</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,10068;31,1974;41,1177</t>
+          <t>21,15851;31,5771;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,5034;31,987;41,588</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>87874</v>
+        <v>92143.00158300002</v>
       </c>
       <c r="O10" t="n">
-        <v>17314</v>
+        <v>33738.1520102</v>
       </c>
       <c r="P10" t="n">
-        <v>9978</v>
+        <v>13969.3652189</v>
       </c>
       <c r="Q10" t="n">
-        <v>87874</v>
+        <v>138340.037799</v>
       </c>
       <c r="R10" t="n">
-        <v>17314</v>
+        <v>50607.2280153</v>
       </c>
       <c r="S10" t="n">
-        <v>9978</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>43937</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8657</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>4989</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10068</v>
+        <v>10558.0433535</v>
       </c>
       <c r="X10" t="n">
-        <v>1974</v>
+        <v>3847.9604174</v>
       </c>
       <c r="Y10" t="n">
-        <v>1177</v>
+        <v>1648.6458317</v>
       </c>
       <c r="Z10" t="n">
-        <v>10068</v>
+        <v>15851.4492855</v>
       </c>
       <c r="AA10" t="n">
-        <v>1974</v>
+        <v>5771.9406261</v>
       </c>
       <c r="AB10" t="n">
-        <v>1177</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>5034</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>987</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,97825;31,18491;41,11933</t>
+          <t>21,102577;31,36031;41,16706</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,97825;31,18491;41,11933</t>
+          <t>21,154005;31,54047;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,48912;31,9245;41,5966</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11139;31,2101;41,1393</t>
+          <t>21,11680;31,4094;41,1951</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,11139;31,2101;41,1393</t>
+          <t>21,17536;31,6141;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5569;31,1050;41,696</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>97825</v>
+        <v>102577.04040016</v>
       </c>
       <c r="O11" t="n">
-        <v>18491</v>
+        <v>36031.81349702</v>
       </c>
       <c r="P11" t="n">
-        <v>11933</v>
+        <v>16706.4963009</v>
       </c>
       <c r="Q11" t="n">
-        <v>97825</v>
+        <v>154005.31133648</v>
       </c>
       <c r="R11" t="n">
-        <v>18491</v>
+        <v>54047.72024553</v>
       </c>
       <c r="S11" t="n">
-        <v>11933</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>48912</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9245</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>5966</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11139</v>
+        <v>11680.62532432</v>
       </c>
       <c r="X11" t="n">
-        <v>2101</v>
+        <v>4094.13675374</v>
       </c>
       <c r="Y11" t="n">
-        <v>1393</v>
+        <v>1951.0225777</v>
       </c>
       <c r="Z11" t="n">
-        <v>11139</v>
+        <v>17536.85164496</v>
       </c>
       <c r="AA11" t="n">
-        <v>2101</v>
+        <v>6141.20513061</v>
       </c>
       <c r="AB11" t="n">
-        <v>1393</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5569</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,116155;31,20969;41,15412</t>
+          <t>21,121796;31,40859;41,21577</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,116155;31,20969;41,15412</t>
+          <t>21,182861;31,61289;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,58077;31,10484;41,7706</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,13108;31,2366;41,1777</t>
+          <t>21,13745;31,4612;41,2488</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,13108;31,2366;41,1777</t>
+          <t>21,20637;31,6918;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6554;31,1183;41,888</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>116155</v>
+        <v>121796.92068216</v>
       </c>
       <c r="O12" t="n">
-        <v>20969</v>
+        <v>40859.68284244</v>
       </c>
       <c r="P12" t="n">
-        <v>15412</v>
+        <v>21577.5702681</v>
       </c>
       <c r="Q12" t="n">
-        <v>116155</v>
+        <v>182861.31688248</v>
       </c>
       <c r="R12" t="n">
-        <v>20969</v>
+        <v>61289.52426366001</v>
       </c>
       <c r="S12" t="n">
-        <v>15412</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>58077</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>10484</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>7706</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>13108</v>
+        <v>13745.72221332</v>
       </c>
       <c r="X12" t="n">
-        <v>2366</v>
+        <v>4612.02877828</v>
       </c>
       <c r="Y12" t="n">
-        <v>1777</v>
+        <v>2488.6318793</v>
       </c>
       <c r="Z12" t="n">
-        <v>13108</v>
+        <v>20637.31046196</v>
       </c>
       <c r="AA12" t="n">
-        <v>2366</v>
+        <v>6918.04316742</v>
       </c>
       <c r="AB12" t="n">
-        <v>1777</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>6554</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1183</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,118996;31,21466;41,15905</t>
+          <t>21,124776;31,41828;41,22268</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,118996;31,21466;41,15905</t>
+          <t>21,187334;31,62742;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,59498;31,10733;41,7952</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13423;31,2421;41,1833</t>
+          <t>21,14075;31,4719;41,2566</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,13423;31,2421;41,1833</t>
+          <t>21,21132;31,7078;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6711;31,1210;41,916</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>118996</v>
+        <v>124776.08211352</v>
       </c>
       <c r="O13" t="n">
-        <v>21466</v>
+        <v>41828.28317382</v>
       </c>
       <c r="P13" t="n">
-        <v>15905</v>
+        <v>22268.1364262</v>
       </c>
       <c r="Q13" t="n">
-        <v>118996</v>
+        <v>187334.11783256</v>
       </c>
       <c r="R13" t="n">
-        <v>21466</v>
+        <v>62742.42476073</v>
       </c>
       <c r="S13" t="n">
-        <v>15905</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>59498</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10733</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>7952</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>13423</v>
+        <v>14075.86593004</v>
       </c>
       <c r="X13" t="n">
-        <v>2421</v>
+        <v>4719.195755340001</v>
       </c>
       <c r="Y13" t="n">
-        <v>1833</v>
+        <v>2566.5289286</v>
       </c>
       <c r="Z13" t="n">
-        <v>13423</v>
+        <v>21132.97582412</v>
       </c>
       <c r="AA13" t="n">
-        <v>2421</v>
+        <v>7078.793633010001</v>
       </c>
       <c r="AB13" t="n">
-        <v>1833</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>6711</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,121833;31,21964;41,16398</t>
+          <t>21,127750;31,42798;41,22958</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,121833;31,21964;41,16398</t>
+          <t>21,191800;31,64197;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,60916;31,10982;41,8199</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13738;31,2476;41,1888</t>
+          <t>21,14405;31,4826;41,2644</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13738;31,2476;41,1888</t>
+          <t>21,21627;31,7239;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6869;31,1238;41,944</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>121833</v>
+        <v>127750.74220914</v>
       </c>
       <c r="O14" t="n">
-        <v>21964</v>
+        <v>42798.45614946</v>
       </c>
       <c r="P14" t="n">
-        <v>16398</v>
+        <v>22958.330052</v>
       </c>
       <c r="Q14" t="n">
-        <v>121833</v>
+        <v>191800.16064642</v>
       </c>
       <c r="R14" t="n">
-        <v>21964</v>
+        <v>64197.68422419001</v>
       </c>
       <c r="S14" t="n">
-        <v>16398</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>60916</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10982</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8199</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13738</v>
+        <v>14405.49779553</v>
       </c>
       <c r="X14" t="n">
-        <v>2476</v>
+        <v>4826.53010202</v>
       </c>
       <c r="Y14" t="n">
-        <v>1888</v>
+        <v>2644.385156</v>
       </c>
       <c r="Z14" t="n">
-        <v>13738</v>
+        <v>21627.87271209</v>
       </c>
       <c r="AA14" t="n">
-        <v>2476</v>
+        <v>7239.79515303</v>
       </c>
       <c r="AB14" t="n">
-        <v>1888</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>6869</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1238</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,124674;31,22461;41,16892</t>
+          <t>21,130729;31,43767;41,23648</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,124674;31,22461;41,16892</t>
+          <t>21,196272;31,65650;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,62337;31,11230;41,8446</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,14053;31,2531;41,1944</t>
+          <t>21,14735;31,4933;41,2722</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,14053;31,2531;41,1944</t>
+          <t>21,22123;31,7400;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,7026;31,1265;41,972</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>124674</v>
+        <v>130729.9036405</v>
       </c>
       <c r="O15" t="n">
-        <v>22461</v>
+        <v>43767.05648084</v>
       </c>
       <c r="P15" t="n">
-        <v>16892</v>
+        <v>23648.9452101</v>
       </c>
       <c r="Q15" t="n">
-        <v>124674</v>
+        <v>196272.9615965</v>
       </c>
       <c r="R15" t="n">
-        <v>22461</v>
+        <v>65650.58472126001</v>
       </c>
       <c r="S15" t="n">
-        <v>16892</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>62337</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11230</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>8446</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>14053</v>
+        <v>14735.64151225</v>
       </c>
       <c r="X15" t="n">
-        <v>2531</v>
+        <v>4933.697079080001</v>
       </c>
       <c r="Y15" t="n">
-        <v>1944</v>
+        <v>2722.3312053</v>
       </c>
       <c r="Z15" t="n">
-        <v>14053</v>
+        <v>22123.53807425</v>
       </c>
       <c r="AA15" t="n">
-        <v>2531</v>
+        <v>7400.545618620001</v>
       </c>
       <c r="AB15" t="n">
-        <v>1944</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>7026</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1265</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,127511;31,22958;41,17385</t>
+          <t>21,133704;31,44735;41,24339</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,127511;31,22958;41,17385</t>
+          <t>21,200739;31,67103;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,63755;31,11479;41,8692</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14367;31,2586;41,2000</t>
+          <t>21,15065;31,5040;41,2800</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,14367;31,2586;41,2000</t>
+          <t>21,22618;31,7561;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7183;31,1293;41,1000</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>127511</v>
+        <v>133704.60043612</v>
       </c>
       <c r="O16" t="n">
-        <v>22958</v>
+        <v>44735.65681222</v>
       </c>
       <c r="P16" t="n">
-        <v>17385</v>
+        <v>24339.1388359</v>
       </c>
       <c r="Q16" t="n">
-        <v>127511</v>
+        <v>200739.05951036</v>
       </c>
       <c r="R16" t="n">
-        <v>22958</v>
+        <v>67103.48521833</v>
       </c>
       <c r="S16" t="n">
-        <v>17385</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>63755</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>11479</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>8692</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14367</v>
+        <v>15065.31007774</v>
       </c>
       <c r="X16" t="n">
-        <v>2586</v>
+        <v>5040.86405614</v>
       </c>
       <c r="Y16" t="n">
-        <v>2000</v>
+        <v>2800.1874327</v>
       </c>
       <c r="Z16" t="n">
-        <v>14367</v>
+        <v>22618.49006222</v>
       </c>
       <c r="AA16" t="n">
-        <v>2586</v>
+        <v>7561.29608421</v>
       </c>
       <c r="AB16" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7183</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1293</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,130352;31,23456;41,17878</t>
+          <t>21,136683;31,45705;41,25029</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,130352;31,23456;41,17878</t>
+          <t>21,205211;31,68558;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,65176;31,11728;41,8939</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14682;31,2642;41,2055</t>
+          <t>21,15395;31,5148;41,2878</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14682;31,2642;41,2055</t>
+          <t>21,23114;31,7722;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7341;31,1321;41,1027</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>130352</v>
+        <v>136683.76186748</v>
       </c>
       <c r="O17" t="n">
-        <v>23456</v>
+        <v>45705.82978786</v>
       </c>
       <c r="P17" t="n">
-        <v>17878</v>
+        <v>25029.3324617</v>
       </c>
       <c r="Q17" t="n">
-        <v>130352</v>
+        <v>205211.86046044</v>
       </c>
       <c r="R17" t="n">
-        <v>23456</v>
+        <v>68558.74468179001</v>
       </c>
       <c r="S17" t="n">
-        <v>17878</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>65176</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>11728</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8939</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14682</v>
+        <v>15395.45379446</v>
       </c>
       <c r="X17" t="n">
-        <v>2642</v>
+        <v>5148.19840282</v>
       </c>
       <c r="Y17" t="n">
-        <v>2055</v>
+        <v>2878.0436601</v>
       </c>
       <c r="Z17" t="n">
-        <v>14682</v>
+        <v>23114.15542438</v>
       </c>
       <c r="AA17" t="n">
-        <v>2642</v>
+        <v>7722.297604230001</v>
       </c>
       <c r="AB17" t="n">
-        <v>2055</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7341</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1027</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5447,37 +5447,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7664</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2561</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7020</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2346</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -5501,37 +5501,37 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>3912</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>3583</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1301</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -5556,27 +5556,27 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
+          <t>21,7664;31,2561;41,1401;22,42;32,78;42,56</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>21,7020;31,2346;41,0;22,63;32,117;42,0</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,3912;31,1420;41,565;22,36;32,68;42,49</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,3583;31,1301;41,0;22,55;32,102;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -5590,37 +5590,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15329</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5122</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2803</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>14041</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4692</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -5644,37 +5644,37 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>4513</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1579</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>4134</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1446</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -5699,27 +5699,27 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
+          <t>21,15329;31,5122;41,2803;22,84;32,156;42,112</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>21,14041;31,4692;41,0;22,126;32,234;42,0</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,4513;31,1579;41,700;22,73;32,136;42,98</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,4134;31,1446;41,0;22,110;32,204;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -5733,37 +5733,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22994</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7684</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4205</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>21062</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>7038</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -5787,37 +5787,37 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>5535</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1856</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>5070</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -5842,27 +5842,27 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
+          <t>21,22994;31,7684;41,4205;22,126;32,234;42,168</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>21,21062;31,7038;41,0;22,189;32,351;42,0</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,5535;31,1856;41,935;22,110;32,204;42,147</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,5070;31,1700;41,0;22,165;32,307;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -5876,37 +5876,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>30658</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>10245</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5607</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>28083</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>9384</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -5930,37 +5930,37 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>5936</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1989</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>5437</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1822</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -5985,27 +5985,27 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
+          <t>21,30658;31,10245;41,5607;22,168;32,312;42,224</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>21,28083;31,9384;41,0;22,252;32,468;42,0</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,5936;31,1989;41,1018;22,147;32,273;42,196</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,5437;31,1822;41,0;22,220;32,409;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -6019,37 +6019,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>38323</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>12807</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>7008</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>35104</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>11731</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -6073,37 +6073,37 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>6362</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>5828</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1951</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -6128,27 +6128,27 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
+          <t>21,38323;31,12807;41,7008;22,210;32,390;42,280</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>21,35104;31,11731;41,0;22,315;32,585;42,0</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,6362;31,2130;41,1107;22,183;32,341;42,245</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,5828;31,1951;41,0;22,275;32,511;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -6162,37 +6162,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>45988</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15368</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>8410</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>42124</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14077</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -6216,37 +6216,37 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>6817</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2281</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>6244</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>2089</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -6271,27 +6271,27 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
+          <t>21,45988;31,15368;41,8410;22,252;32,468;42,336</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>21,42124;31,14077;41,0;22,378;32,702;42,0</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,6817;31,2281;41,1203;22,220;32,409;42,294</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,6244;31,2089;41,0;22,330;32,614;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -6305,37 +6305,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>53652</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>17929</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>9812</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>49145</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>16423</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -6359,37 +6359,37 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>7301</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2441</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1305</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>6687</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>2236</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -6414,27 +6414,27 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
+          <t>21,53652;31,17929;41,9812;22,294;32,546;42,392</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>21,49145;31,16423;41,0;22,441;32,819;42,0</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,7301;31,2441;41,1305;22,257;32,477;42,343</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,6687;31,2236;41,0;22,385;32,716;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -6448,37 +6448,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>61317</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>20491</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>11214</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>56166</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>18769</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -6502,37 +6502,37 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>8112</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2711</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>7431</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>2483</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -6557,27 +6557,27 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
+          <t>21,61317;31,20491;41,11214;22,330;32,614;42,441</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>21,56166;31,18769;41,0;22,496;32,921;42,0</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,8112;31,2711;41,1479;22,294;32,546;42,392</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,7431;31,2483;41,0;22,441;32,819;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -6591,37 +6591,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>68982</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>23052</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12615</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>63187</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>21115</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -6645,37 +6645,37 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>8784</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2935</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1621</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>8046</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>2688</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -6700,27 +6700,27 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
+          <t>21,68982;31,23052;41,12615;22,351;32,653;42,469</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>21,63187;31,21115;41,0;22,527;32,979;42,0</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,8784;31,2935;41,1621;22,330;32,614;42,441</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,8046;31,2688;41,0;22,496;32,921;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -6734,37 +6734,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>76647</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>25614</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>14017</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>70208</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23462</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -6788,37 +6788,37 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9470</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3164</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1768</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>8674</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2898</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -6843,27 +6843,27 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
+          <t>21,76647;31,25614;41,14017;22,367;32,682;42,490</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>21,70208;31,23462;41,0;22,551;32,1023;42,0</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,9470;31,3164;41,1768;22,367;32,682;42,490</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,8674;31,2898;41,0;22,551;32,1023;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -7169,7 +7169,6 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
         <v>30</v>
       </c>
@@ -7226,8 +7225,6 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="n">
         <v>11286490.583745</v>
       </c>
@@ -7304,7 +7301,6 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
         <v>30</v>
       </c>
@@ -7361,8 +7357,6 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="n">
         <v>1278908.049665</v>
       </c>
@@ -7439,7 +7433,6 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>-1</v>
       </c>
@@ -7496,8 +7489,6 @@
       <c r="AI4" t="n">
         <v>0</v>
       </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
         <v>19389.824245</v>
       </c>
@@ -7574,7 +7565,6 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>-1</v>
       </c>
@@ -7631,8 +7621,6 @@
       <c r="AI5" t="n">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
         <v>48863.95451</v>
       </c>
@@ -7709,7 +7697,6 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
         <v>-1</v>
       </c>
@@ -7766,8 +7753,6 @@
       <c r="AI6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
         <v>116393.6705</v>
       </c>
@@ -7844,7 +7829,6 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
         <v>-1</v>
       </c>
@@ -7901,8 +7885,6 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
         <v>116393.6705</v>
       </c>
@@ -7979,7 +7961,6 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
         <v>0</v>
       </c>
@@ -8036,8 +8017,6 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
         <v>116393.6705</v>
       </c>
@@ -8114,7 +8093,6 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
         <v>-1</v>
       </c>
@@ -8171,8 +8149,6 @@
       <c r="AI9" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
         <v>525392.9045750001</v>
       </c>
@@ -8249,7 +8225,6 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
         <v>0</v>
       </c>
@@ -8306,8 +8281,6 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
         <v>525392.9045750001</v>
       </c>
@@ -8384,7 +8357,6 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
         <v>10</v>
       </c>
@@ -8441,8 +8413,6 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
         <v>525392.9045750001</v>
       </c>
@@ -8519,7 +8489,6 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
         <v>20</v>
       </c>
@@ -8576,8 +8545,6 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
         <v>525392.9045750001</v>
       </c>
@@ -8654,7 +8621,6 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
         <v>30</v>
       </c>
@@ -8711,8 +8677,6 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
         <v>525392.9045750001</v>
       </c>
@@ -8789,7 +8753,6 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
         <v>30</v>
       </c>
@@ -8846,8 +8809,6 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="n">
         <v>525392.9045750001</v>
       </c>
@@ -8924,7 +8885,6 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
         <v>30</v>
       </c>
@@ -8981,8 +8941,6 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="n">
         <v>808312.24626</v>
       </c>
@@ -9059,7 +9017,6 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
         <v>30</v>
       </c>
@@ -9116,8 +9073,6 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="n">
         <v>808312.24626</v>
       </c>
@@ -9194,7 +9149,6 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
         <v>30</v>
       </c>
@@ -9251,8 +9205,6 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="n">
         <v>1850291.40716</v>
       </c>
@@ -9329,7 +9281,6 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
         <v>30</v>
       </c>
@@ -9386,8 +9337,6 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="n">
         <v>11286490.583745</v>
       </c>
@@ -9464,7 +9413,6 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
         <v>30</v>
       </c>
@@ -9521,8 +9469,6 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
         <v>18315880.95413</v>
       </c>
@@ -9599,7 +9545,6 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
         <v>0</v>
       </c>
@@ -9656,8 +9601,6 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="n">
         <v>554583.1412000001</v>
       </c>
@@ -9734,7 +9677,6 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
         <v>10</v>
       </c>
@@ -9791,8 +9733,6 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="n">
         <v>656994.8589700001</v>
       </c>
@@ -9869,7 +9809,6 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
         <v>20</v>
       </c>
@@ -9926,8 +9865,6 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
         <v>831330.723185</v>
       </c>
@@ -10004,7 +9941,6 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
         <v>30</v>
       </c>
@@ -10061,8 +9997,6 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="n">
         <v>907833.1910799999</v>
       </c>
@@ -10139,7 +10073,6 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
         <v>30</v>
       </c>
@@ -10196,8 +10129,6 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="n">
         <v>1028470.125095</v>
       </c>
@@ -10274,7 +10205,6 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
         <v>30</v>
       </c>
@@ -10331,8 +10261,6 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="n">
         <v>1278908.049665</v>
       </c>

--- a/opm_hero_property/heroes/98.xlsx
+++ b/opm_hero_property/heroes/98.xlsx
@@ -7169,6 +7169,7 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
         <v>30</v>
       </c>
@@ -7178,13 +7179,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5387658.8766984</v>
+        <v>5600989.63856588</v>
       </c>
       <c r="U2" t="n">
-        <v>906786.9660052001</v>
+        <v>978106.7957930601</v>
       </c>
       <c r="V2" t="n">
-        <v>702630.0061138</v>
+        <v>741676.3385754999</v>
       </c>
       <c r="W2" t="n">
         <v>3980</v>
@@ -7225,6 +7226,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,275419;31,92020;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11286490.583745</v>
       </c>
@@ -7244,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>929953.999058489</v>
       </c>
       <c r="AS2" t="n">
-        <v>15700849.47728863</v>
+        <v>16630803.47634712</v>
       </c>
     </row>
     <row r="3">
@@ -7301,6 +7312,7 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
         <v>30</v>
       </c>
@@ -7310,13 +7322,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>681840.6594067999</v>
+        <v>706706.11320126</v>
       </c>
       <c r="U3" t="n">
-        <v>132457.1408324</v>
+        <v>140769.33923522</v>
       </c>
       <c r="V3" t="n">
-        <v>91159.4036914</v>
+        <v>95805.4473515</v>
       </c>
       <c r="W3" t="n">
         <v>3980</v>
@@ -7357,6 +7369,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,31788;31,10620;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1278908.049665</v>
       </c>
@@ -7376,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>108934.373819493</v>
       </c>
       <c r="AS3" t="n">
-        <v>2136199.50237591</v>
+        <v>2245133.876195403</v>
       </c>
     </row>
     <row r="4">
@@ -7433,6 +7455,7 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>-1</v>
       </c>
@@ -7489,6 +7512,8 @@
       <c r="AI4" t="n">
         <v>0</v>
       </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
         <v>19389.824245</v>
       </c>
@@ -7565,6 +7590,7 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>-1</v>
       </c>
@@ -7621,6 +7647,8 @@
       <c r="AI5" t="n">
         <v>0</v>
       </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
         <v>48863.95451</v>
       </c>
@@ -7697,6 +7725,7 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
         <v>-1</v>
       </c>
@@ -7753,6 +7782,8 @@
       <c r="AI6" t="n">
         <v>0</v>
       </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
         <v>116393.6705</v>
       </c>
@@ -7829,6 +7860,7 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
         <v>-1</v>
       </c>
@@ -7838,13 +7870,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>56827.86</v>
+        <v>64658.129012</v>
       </c>
       <c r="U7" t="n">
-        <v>10557.25</v>
+        <v>13178.56935</v>
       </c>
       <c r="V7" t="n">
-        <v>5264.154</v>
+        <v>6687.1852624</v>
       </c>
       <c r="W7" t="n">
         <v>1300</v>
@@ -7885,6 +7917,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,7269;31,2436;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>116393.6705</v>
       </c>
@@ -7904,10 +7946,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>34099.8022858</v>
       </c>
       <c r="AS7" t="n">
-        <v>165051.7705</v>
+        <v>199151.5727858</v>
       </c>
     </row>
     <row r="8">
@@ -7961,6 +8003,7 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
         <v>0</v>
       </c>
@@ -7970,13 +8013,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>57065.38716</v>
+        <v>72726.92518399999</v>
       </c>
       <c r="U8" t="n">
-        <v>10588.183</v>
+        <v>15830.8217</v>
       </c>
       <c r="V8" t="n">
-        <v>5287.758924000001</v>
+        <v>8134.821448800001</v>
       </c>
       <c r="W8" t="n">
         <v>1300</v>
@@ -8017,6 +8060,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,14539;31,4872;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>116393.6705</v>
       </c>
@@ -8036,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>68206.35457160001</v>
       </c>
       <c r="AS8" t="n">
-        <v>165638.463673</v>
+        <v>233844.8182446</v>
       </c>
     </row>
     <row r="9">
@@ -8093,6 +8146,7 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
         <v>-1</v>
       </c>
@@ -8149,6 +8203,8 @@
       <c r="AI9" t="n">
         <v>0</v>
       </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
         <v>525392.9045750001</v>
       </c>
@@ -8225,6 +8281,7 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
         <v>0</v>
       </c>
@@ -8234,13 +8291,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>242236.0694288</v>
+        <v>250658.14466896</v>
       </c>
       <c r="U10" t="n">
-        <v>42743.600896</v>
+        <v>45558.8358432</v>
       </c>
       <c r="V10" t="n">
-        <v>25595.2080174</v>
+        <v>27112.27279364</v>
       </c>
       <c r="W10" t="n">
         <v>3380</v>
@@ -8281,6 +8338,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,8157;31,2727;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>525392.9045750001</v>
       </c>
@@ -8300,10 +8367,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>36570.31883922</v>
       </c>
       <c r="AS10" t="n">
-        <v>697137.36171125</v>
+        <v>733707.68055047</v>
       </c>
     </row>
     <row r="11">
@@ -8357,6 +8424,7 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
         <v>10</v>
       </c>
@@ -8366,13 +8434,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>253065.7157168</v>
+        <v>295179.0919176</v>
       </c>
       <c r="U11" t="n">
-        <v>44047.369856</v>
+        <v>58125.54459200001</v>
       </c>
       <c r="V11" t="n">
-        <v>26838.7591914</v>
+        <v>34427.0830726</v>
       </c>
       <c r="W11" t="n">
         <v>3580</v>
@@ -8413,6 +8481,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,40789;31,13637;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>525392.9045750001</v>
       </c>
@@ -8432,10 +8510,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>182885.6441961</v>
       </c>
       <c r="AS11" t="n">
-        <v>724443.4330737501</v>
+        <v>907329.0772698501</v>
       </c>
     </row>
     <row r="12">
@@ -8489,6 +8567,7 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
         <v>20</v>
       </c>
@@ -8498,13 +8577,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>263895.3620048</v>
+        <v>306008.7382056</v>
       </c>
       <c r="U12" t="n">
-        <v>45351.138816</v>
+        <v>59429.313552</v>
       </c>
       <c r="V12" t="n">
-        <v>28082.3103654</v>
+        <v>35670.6342466</v>
       </c>
       <c r="W12" t="n">
         <v>3780</v>
@@ -8545,6 +8624,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,40789;31,13637;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>525392.9045750001</v>
       </c>
@@ -8564,10 +8653,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>182885.6441961</v>
       </c>
       <c r="AS12" t="n">
-        <v>751749.50443625</v>
+        <v>934635.14863235</v>
       </c>
     </row>
     <row r="13">
@@ -8621,6 +8710,7 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
         <v>30</v>
       </c>
@@ -8630,13 +8720,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>274725.0082928</v>
+        <v>357996.14193896</v>
       </c>
       <c r="U13" t="n">
-        <v>46654.907776</v>
+        <v>74491.8338528</v>
       </c>
       <c r="V13" t="n">
-        <v>29325.8615394</v>
+        <v>44358.4283315</v>
       </c>
       <c r="W13" t="n">
         <v>3980</v>
@@ -8677,6 +8767,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,80153;31,26796;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>525392.9045750001</v>
       </c>
@@ -8696,10 +8796,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>361783.182630655</v>
       </c>
       <c r="AS13" t="n">
-        <v>779055.57579875</v>
+        <v>1140838.758429405</v>
       </c>
     </row>
     <row r="14">
@@ -8753,6 +8853,7 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
         <v>30</v>
       </c>
@@ -8762,13 +8863,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>274725.0082928</v>
+        <v>316838.3844936</v>
       </c>
       <c r="U14" t="n">
-        <v>46654.907776</v>
+        <v>60733.082512</v>
       </c>
       <c r="V14" t="n">
-        <v>29325.8615394</v>
+        <v>36914.1854206</v>
       </c>
       <c r="W14" t="n">
         <v>3980</v>
@@ -8809,6 +8910,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,40789;31,13637;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>525392.9045750001</v>
       </c>
@@ -8828,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>182885.6441961</v>
       </c>
       <c r="AS14" t="n">
-        <v>778880.57579875</v>
+        <v>961766.21999485</v>
       </c>
     </row>
     <row r="15">
@@ -8885,6 +8996,7 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
         <v>30</v>
       </c>
@@ -8894,13 +9006,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>415485.9410924</v>
+        <v>468295.78807008</v>
       </c>
       <c r="U15" t="n">
-        <v>70214.74280559999</v>
+        <v>87867.06341351999</v>
       </c>
       <c r="V15" t="n">
-        <v>49449.73467199999</v>
+        <v>59028.36121919999</v>
       </c>
       <c r="W15" t="n">
         <v>3980</v>
@@ -8941,6 +9053,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,52356;31,17503;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>808312.24626</v>
       </c>
@@ -8960,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>229687.961818728</v>
       </c>
       <c r="AS15" t="n">
-        <v>1198266.64081504</v>
+        <v>1427954.602633768</v>
       </c>
     </row>
     <row r="16">
@@ -9017,6 +9139,7 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
         <v>30</v>
       </c>
@@ -9026,13 +9149,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>415485.9410924</v>
+        <v>477096.76256636</v>
       </c>
       <c r="U16" t="n">
-        <v>70214.74280559999</v>
+        <v>90808.78351483999</v>
       </c>
       <c r="V16" t="n">
-        <v>49449.73467199999</v>
+        <v>60625.13231039999</v>
       </c>
       <c r="W16" t="n">
         <v>3980</v>
@@ -9073,6 +9196,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,61083;31,20420;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>808312.24626</v>
       </c>
@@ -9092,10 +9225,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>267968.238788516</v>
       </c>
       <c r="AS16" t="n">
-        <v>1198441.64081504</v>
+        <v>1466409.879603556</v>
       </c>
     </row>
     <row r="17">
@@ -9149,6 +9282,7 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
         <v>30</v>
       </c>
@@ -9158,13 +9292,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1064674.1169748</v>
+        <v>1145807.6480542</v>
       </c>
       <c r="U17" t="n">
-        <v>177499.1445456</v>
+        <v>204628.89087576</v>
       </c>
       <c r="V17" t="n">
-        <v>138831.1854</v>
+        <v>153902.34339</v>
       </c>
       <c r="W17" t="n">
         <v>3980</v>
@@ -9205,6 +9339,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,85950;31,28727;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1850291.40716</v>
       </c>
@@ -9224,10 +9368,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>354987.939200004</v>
       </c>
       <c r="AS17" t="n">
-        <v>3102535.53038944</v>
+        <v>3457523.469589444</v>
       </c>
     </row>
     <row r="18">
@@ -9281,6 +9425,7 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
         <v>30</v>
       </c>
@@ -9290,13 +9435,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5387658.8766984</v>
+        <v>5600989.63856588</v>
       </c>
       <c r="U18" t="n">
-        <v>906786.9660052001</v>
+        <v>978106.7957930601</v>
       </c>
       <c r="V18" t="n">
-        <v>702630.0061138</v>
+        <v>741676.3385754999</v>
       </c>
       <c r="W18" t="n">
         <v>3980</v>
@@ -9337,6 +9482,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,275419;31,92020;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11286490.583745</v>
       </c>
@@ -9356,10 +9511,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>929953.999058489</v>
       </c>
       <c r="AS18" t="n">
-        <v>15700849.47728863</v>
+        <v>16630803.47634712</v>
       </c>
     </row>
     <row r="19">
@@ -9413,6 +9568,7 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
         <v>30</v>
       </c>
@@ -9422,13 +9578,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8911793.679357199</v>
+        <v>9125124.441224679</v>
       </c>
       <c r="U19" t="n">
-        <v>1498239.5140108</v>
+        <v>1569559.34379866</v>
       </c>
       <c r="V19" t="n">
-        <v>1153788.5485816</v>
+        <v>1192834.8810433</v>
       </c>
       <c r="W19" t="n">
         <v>3980</v>
@@ -9469,6 +9625,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,275419;31,92020;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18315880.95413</v>
       </c>
@@ -9488,10 +9654,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>929953.999058489</v>
       </c>
       <c r="AS19" t="n">
-        <v>25902443.48037592</v>
+        <v>26832397.47943441</v>
       </c>
     </row>
     <row r="20">
@@ -9545,6 +9711,7 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
         <v>0</v>
       </c>
@@ -9554,13 +9721,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>216994.65449</v>
+        <v>221577.298184</v>
       </c>
       <c r="U20" t="n">
-        <v>41550.889644</v>
+        <v>43218.6283388</v>
       </c>
       <c r="V20" t="n">
-        <v>22574.0579464</v>
+        <v>23237.98367596</v>
       </c>
       <c r="W20" t="n">
         <v>1300</v>
@@ -9601,6 +9768,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,4607;31,1672;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>554583.1412000001</v>
       </c>
@@ -9620,10 +9797,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>19907.61363309</v>
       </c>
       <c r="AS20" t="n">
-        <v>638606.6262254001</v>
+        <v>658514.2398584901</v>
       </c>
     </row>
     <row r="21">
@@ -9677,6 +9854,7 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
         <v>10</v>
       </c>
@@ -9686,13 +9864,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>285420.4963936</v>
+        <v>291543.77981168</v>
       </c>
       <c r="U21" t="n">
-        <v>51712.7861032</v>
+        <v>53857.01703328</v>
       </c>
       <c r="V21" t="n">
-        <v>31324.3607844</v>
+        <v>32277.98736572</v>
       </c>
       <c r="W21" t="n">
         <v>1900</v>
@@ -9733,6 +9911,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,6560;31,2293;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>656994.8589700001</v>
       </c>
@@ -9752,10 +9940,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>26401.829678222</v>
       </c>
       <c r="AS21" t="n">
-        <v>830023.79501598</v>
+        <v>856425.624694202</v>
       </c>
     </row>
     <row r="22">
@@ -9809,6 +9997,7 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
         <v>20</v>
       </c>
@@ -9818,13 +10007,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>398136.8521072</v>
+        <v>409587.97243896</v>
       </c>
       <c r="U22" t="n">
-        <v>69059.09025360001</v>
+        <v>72901.39124774</v>
       </c>
       <c r="V22" t="n">
-        <v>46815.32551379999</v>
+        <v>48799.78508315</v>
       </c>
       <c r="W22" t="n">
         <v>3780</v>
@@ -9865,6 +10054,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,13475;31,4516;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>831330.723185</v>
       </c>
@@ -9884,10 +10083,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>49373.6397150885</v>
       </c>
       <c r="AS22" t="n">
-        <v>1157290.69656139</v>
+        <v>1206664.336276479</v>
       </c>
     </row>
     <row r="23">
@@ -9941,6 +10140,7 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
         <v>30</v>
       </c>
@@ -9950,13 +10150,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>460320.9074998</v>
+        <v>475390.97649031</v>
       </c>
       <c r="U23" t="n">
-        <v>80604.0769288</v>
+        <v>85645.02725754</v>
       </c>
       <c r="V23" t="n">
-        <v>55787.605704</v>
+        <v>58456.3518892</v>
       </c>
       <c r="W23" t="n">
         <v>3980</v>
@@ -9997,6 +10197,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,18325;31,6138;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>907833.1910799999</v>
       </c>
@@ -10016,10 +10226,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>65197.916823716</v>
       </c>
       <c r="AS23" t="n">
-        <v>1351405.77110652</v>
+        <v>1416603.687930236</v>
       </c>
     </row>
     <row r="24">
@@ -10073,6 +10283,7 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
         <v>30</v>
       </c>
@@ -10082,13 +10293,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>533043.5721199999</v>
+        <v>551163.6090679999</v>
       </c>
       <c r="U24" t="n">
-        <v>97658.61124720001</v>
+        <v>103716.31976508</v>
       </c>
       <c r="V24" t="n">
-        <v>67435.7505642</v>
+        <v>70716.58717644001</v>
       </c>
       <c r="W24" t="n">
         <v>3980</v>
@@ -10129,6 +10340,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,22443;31,7503;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1028470.125095</v>
       </c>
@@ -10148,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>78783.03624175201</v>
       </c>
       <c r="AS24" t="n">
-        <v>1609481.55546983</v>
+        <v>1688264.591711582</v>
       </c>
     </row>
     <row r="25">
@@ -10205,6 +10426,7 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
         <v>30</v>
       </c>
@@ -10214,13 +10436,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>681840.6594067999</v>
+        <v>706706.11320126</v>
       </c>
       <c r="U25" t="n">
-        <v>132457.1408324</v>
+        <v>140769.33923522</v>
       </c>
       <c r="V25" t="n">
-        <v>91159.4036914</v>
+        <v>95805.4473515</v>
       </c>
       <c r="W25" t="n">
         <v>3980</v>
@@ -10261,6 +10483,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,31788;31,10620;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1278908.049665</v>
       </c>
@@ -10280,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>108934.373819493</v>
       </c>
       <c r="AS25" t="n">
-        <v>2136199.50237591</v>
+        <v>2245133.876195403</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/98.xlsx
+++ b/opm_hero_property/heroes/98.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7079,40 +7079,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7152,7 +7172,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>98</v>
@@ -7179,13 +7199,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5600989.63856588</v>
+        <v>6494833.89331788</v>
       </c>
       <c r="U2" t="n">
-        <v>978106.7957930601</v>
+        <v>1138947.67237706</v>
       </c>
       <c r="V2" t="n">
-        <v>741676.3385754999</v>
+        <v>864268.5548395</v>
       </c>
       <c r="W2" t="n">
         <v>3980</v>
@@ -7224,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -7237,28 +7257,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11286490.583745</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1813423.59354363</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2908477.6466996</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1805698.3</v>
+      </c>
+      <c r="AU2" t="n">
         <v>929953.999058489</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16630803.47634712</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19339355.02304672</v>
       </c>
     </row>
     <row r="3">
@@ -7295,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>98</v>
@@ -7322,13 +7350,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>706706.11320126</v>
+        <v>807384.68550526</v>
       </c>
       <c r="U3" t="n">
-        <v>140769.33923522</v>
+        <v>158885.28164322</v>
       </c>
       <c r="V3" t="n">
-        <v>95805.4473515</v>
+        <v>109901.2941435</v>
       </c>
       <c r="W3" t="n">
         <v>3980</v>
@@ -7367,7 +7395,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7380,28 +7408,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1278908.049665</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>206420.20271091</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>570050.2439732001</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>204483.05</v>
+      </c>
+      <c r="AU3" t="n">
         <v>108934.373819493</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2245133.876195403</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2551863.570168603</v>
       </c>
     </row>
     <row r="4">
@@ -7438,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>98</v>
@@ -7465,13 +7501,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7524.1856</v>
+        <v>7995.1856</v>
       </c>
       <c r="U4" t="n">
-        <v>1644.8603</v>
+        <v>1728.8603</v>
       </c>
       <c r="V4" t="n">
-        <v>563.2961</v>
+        <v>627.2961</v>
       </c>
       <c r="W4" t="n">
         <v>600</v>
@@ -7510,25 +7546,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19389.824245</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4456.85</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7536,7 +7568,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23846.674245</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1418.6</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25265.274245</v>
       </c>
     </row>
     <row r="5">
@@ -7573,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>98</v>
@@ -7600,13 +7644,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19969.4921</v>
+        <v>33806.4921</v>
       </c>
       <c r="U5" t="n">
-        <v>4098.3664</v>
+        <v>6587.3664</v>
       </c>
       <c r="V5" t="n">
-        <v>1682.519</v>
+        <v>3579.519</v>
       </c>
       <c r="W5" t="n">
         <v>777</v>
@@ -7645,25 +7689,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48863.95451</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11828.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7671,7 +7711,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60692.75451000001</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>41918.85000000001</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>102611.60451</v>
       </c>
     </row>
     <row r="6">
@@ -7708,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>98</v>
@@ -7735,13 +7787,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>56827.86</v>
+        <v>116149.86</v>
       </c>
       <c r="U6" t="n">
-        <v>10557.25</v>
+        <v>21231.25</v>
       </c>
       <c r="V6" t="n">
-        <v>5264.154</v>
+        <v>13400.154</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7780,33 +7832,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>116393.6705</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32682</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9640.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>164876.7705</v>
+      <c r="AT6" t="n">
+        <v>179754.6</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>344631.3705</v>
       </c>
     </row>
     <row r="7">
@@ -7843,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>98</v>
@@ -7870,13 +7930,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>64658.129012</v>
+        <v>123980.129012</v>
       </c>
       <c r="U7" t="n">
-        <v>13178.56935</v>
+        <v>23852.56935</v>
       </c>
       <c r="V7" t="n">
-        <v>6687.1852624</v>
+        <v>14823.1852624</v>
       </c>
       <c r="W7" t="n">
         <v>1300</v>
@@ -7915,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7928,28 +7988,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>116393.6705</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32682</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>179754.6</v>
+      </c>
+      <c r="AU7" t="n">
         <v>34099.8022858</v>
       </c>
-      <c r="AS7" t="n">
-        <v>199151.5727858</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>378906.1727858</v>
       </c>
     </row>
     <row r="8">
@@ -7986,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>98</v>
@@ -8013,13 +8081,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>72726.92518399999</v>
+        <v>132048.925184</v>
       </c>
       <c r="U8" t="n">
-        <v>15830.8217</v>
+        <v>26504.8217</v>
       </c>
       <c r="V8" t="n">
-        <v>8134.821448800001</v>
+        <v>16270.8214488</v>
       </c>
       <c r="W8" t="n">
         <v>1300</v>
@@ -8058,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -8071,28 +8139,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>116393.6705</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32682</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>586.6931730000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>179754.6</v>
+      </c>
+      <c r="AU8" t="n">
         <v>68206.35457160001</v>
       </c>
-      <c r="AS8" t="n">
-        <v>233844.8182446</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>413599.4182446</v>
       </c>
     </row>
     <row r="9">
@@ -8129,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>98</v>
@@ -8156,31 +8232,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>241153.1048</v>
+        <v>418747.045848</v>
       </c>
       <c r="U9" t="n">
-        <v>42613.224</v>
+        <v>72894.16623999999</v>
       </c>
       <c r="V9" t="n">
-        <v>25470.8529</v>
+        <v>48797.111429</v>
       </c>
       <c r="W9" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X9" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="AA9" t="n">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="AB9" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8201,33 +8277,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>525392.9045750001</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>694439.754575</v>
+        <v>44864.27904574999</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>421185.15</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1215218.18362075</v>
       </c>
     </row>
     <row r="10">
@@ -8264,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>98</v>
@@ -8291,31 +8375,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>250658.14466896</v>
+        <v>485557.5832598653</v>
       </c>
       <c r="U10" t="n">
-        <v>45558.8358432</v>
+        <v>85291.5780941952</v>
       </c>
       <c r="V10" t="n">
-        <v>27112.27279364</v>
+        <v>56843.62488644752</v>
       </c>
       <c r="W10" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X10" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="AA10" t="n">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="AB10" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8336,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8349,28 +8433,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>525392.9045750001</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2697.60713625</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44864.27904574999</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>421185.15</v>
+      </c>
+      <c r="AU10" t="n">
         <v>36570.31883922</v>
       </c>
-      <c r="AS10" t="n">
-        <v>733707.68055047</v>
+      <c r="AV10" t="n">
+        <v>253699.8056106654</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1413838.315206886</v>
       </c>
     </row>
     <row r="11">
@@ -8407,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>98</v>
@@ -8434,31 +8530,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>295179.0919176</v>
+        <v>595054.6275589808</v>
       </c>
       <c r="U11" t="n">
-        <v>58125.54459200001</v>
+        <v>107021.376357952</v>
       </c>
       <c r="V11" t="n">
-        <v>34427.0830726</v>
+        <v>71416.1017504288</v>
       </c>
       <c r="W11" t="n">
-        <v>3580</v>
+        <v>3590</v>
       </c>
       <c r="X11" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="AA11" t="n">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="AB11" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8479,7 +8575,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8492,28 +8588,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>525392.9045750001</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>30003.67849875</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44864.27904574999</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>421185.15</v>
+      </c>
+      <c r="AU11" t="n">
         <v>182885.6441961</v>
       </c>
-      <c r="AS11" t="n">
-        <v>907329.0772698501</v>
+      <c r="AV11" t="n">
+        <v>423632.8031782153</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1757392.709493815</v>
       </c>
     </row>
     <row r="12">
@@ -8550,7 +8658,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>98</v>
@@ -8577,31 +8685,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>306008.7382056</v>
+        <v>688499.7915179256</v>
       </c>
       <c r="U12" t="n">
-        <v>59429.313552</v>
+        <v>117584.747163632</v>
       </c>
       <c r="V12" t="n">
-        <v>35670.6342466</v>
+        <v>83515.14627217519</v>
       </c>
       <c r="W12" t="n">
-        <v>3780</v>
+        <v>3800</v>
       </c>
       <c r="X12" t="n">
-        <v>1650</v>
+        <v>1670</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="AA12" t="n">
-        <v>2370</v>
+        <v>2390</v>
       </c>
       <c r="AB12" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8622,7 +8730,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8635,28 +8743,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>525392.9045750001</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>57309.74986125001</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44864.27904574999</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>421185.15</v>
+      </c>
+      <c r="AU12" t="n">
         <v>182885.6441961</v>
       </c>
-      <c r="AS12" t="n">
-        <v>934635.14863235</v>
+      <c r="AV12" t="n">
+        <v>632678.6603338936</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1993744.638011993</v>
       </c>
     </row>
     <row r="13">
@@ -8693,7 +8813,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>98</v>
@@ -8720,31 +8840,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>357996.14193896</v>
+        <v>837650.946729686</v>
       </c>
       <c r="U13" t="n">
-        <v>74491.8338528</v>
+        <v>145811.8443907488</v>
       </c>
       <c r="V13" t="n">
-        <v>44358.4283315</v>
+        <v>103421.299708641</v>
       </c>
       <c r="W13" t="n">
-        <v>3980</v>
+        <v>4030</v>
       </c>
       <c r="X13" t="n">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="AA13" t="n">
-        <v>2370</v>
+        <v>2420</v>
       </c>
       <c r="AB13" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8765,7 +8885,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8778,28 +8898,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>525392.9045750001</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>84615.82122375</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44864.27904574999</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>421185.15</v>
+      </c>
+      <c r="AU13" t="n">
         <v>361783.182630655</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1140838.758429405</v>
+      <c r="AV13" t="n">
+        <v>885543.5588753832</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2452813.146350538</v>
       </c>
     </row>
     <row r="14">
@@ -8836,7 +8968,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>98</v>
@@ -8863,31 +8995,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>316838.3844936</v>
+        <v>927782.1651675969</v>
       </c>
       <c r="U14" t="n">
-        <v>60733.082512</v>
+        <v>146634.777346048</v>
       </c>
       <c r="V14" t="n">
-        <v>36914.1854206</v>
+        <v>106070.4706043904</v>
       </c>
       <c r="W14" t="n">
-        <v>3980</v>
+        <v>4030</v>
       </c>
       <c r="X14" t="n">
-        <v>1580</v>
+        <v>1630</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="AA14" t="n">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="AB14" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8908,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8921,28 +9053,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>525392.9045750001</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>84615.82122375</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39443.60000000001</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44689.27904574999</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>421185.15</v>
+      </c>
+      <c r="AU14" t="n">
         <v>182885.6441961</v>
       </c>
-      <c r="AS14" t="n">
-        <v>961766.21999485</v>
+      <c r="AV14" t="n">
+        <v>1175483.285789973</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2563680.334830573</v>
       </c>
     </row>
     <row r="15">
@@ -8979,7 +9123,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>98</v>
@@ -9006,31 +9150,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>468295.78807008</v>
+        <v>1474715.381288617</v>
       </c>
       <c r="U15" t="n">
-        <v>87867.06341351999</v>
+        <v>242057.8276176264</v>
       </c>
       <c r="V15" t="n">
-        <v>59028.36121919999</v>
+        <v>177973.3190663456</v>
       </c>
       <c r="W15" t="n">
-        <v>3980</v>
+        <v>4080</v>
       </c>
       <c r="X15" t="n">
-        <v>1720</v>
+        <v>1820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="AA15" t="n">
-        <v>2440</v>
+        <v>2540</v>
       </c>
       <c r="AB15" t="n">
-        <v>720</v>
+        <v>1120</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -9051,7 +9195,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -9064,28 +9208,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>808312.24626</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>130301.59455504</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>112125.4</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128275.1449252</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>770643.7</v>
+      </c>
+      <c r="AU15" t="n">
         <v>229687.961818728</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1427954.602633768</v>
+      <c r="AV15" t="n">
+        <v>1968675.928922759</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4183423.976481727</v>
       </c>
     </row>
     <row r="16">
@@ -9122,7 +9278,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>98</v>
@@ -9149,31 +9305,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>477096.76256636</v>
+        <v>1511741.484517587</v>
       </c>
       <c r="U16" t="n">
-        <v>90808.78351483999</v>
+        <v>249654.0119484843</v>
       </c>
       <c r="V16" t="n">
-        <v>60625.13231039999</v>
+        <v>182902.7952080736</v>
       </c>
       <c r="W16" t="n">
-        <v>3980</v>
+        <v>4180</v>
       </c>
       <c r="X16" t="n">
-        <v>1790</v>
+        <v>1990</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA16" t="n">
-        <v>2510</v>
+        <v>2710</v>
       </c>
       <c r="AB16" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9194,7 +9350,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -9207,28 +9363,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>808312.24626</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>130301.59455504</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112300.4</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128450.1449252</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>770643.7</v>
+      </c>
+      <c r="AU16" t="n">
         <v>267968.238788516</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1466409.879603556</v>
+      <c r="AV16" t="n">
+        <v>2049379.914879796</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4302583.239408551</v>
       </c>
     </row>
     <row r="17">
@@ -9265,7 +9433,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>98</v>
@@ -9292,31 +9460,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1145807.6480542</v>
+        <v>2764927.791098487</v>
       </c>
       <c r="U17" t="n">
-        <v>204628.89087576</v>
+        <v>446003.2491594867</v>
       </c>
       <c r="V17" t="n">
-        <v>153902.34339</v>
+        <v>347656.9961460801</v>
       </c>
       <c r="W17" t="n">
-        <v>3980</v>
+        <v>4180</v>
       </c>
       <c r="X17" t="n">
-        <v>2070</v>
+        <v>2270</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA17" t="n">
-        <v>2790</v>
+        <v>2990</v>
       </c>
       <c r="AB17" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9337,7 +9505,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9350,28 +9518,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1850291.40716</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>298735.77322944</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>683503.6000000001</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>757482.2562864</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1231301.7</v>
+      </c>
+      <c r="AU17" t="n">
         <v>354987.939200004</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3457523.469589444</v>
+      <c r="AV17" t="n">
+        <v>3095812.112263062</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7858615.938138906</v>
       </c>
     </row>
     <row r="18">
@@ -9408,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>98</v>
@@ -9435,31 +9615,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5600989.63856588</v>
+        <v>9721217.162968555</v>
       </c>
       <c r="U18" t="n">
-        <v>978106.7957930601</v>
+        <v>1541887.097717553</v>
       </c>
       <c r="V18" t="n">
-        <v>741676.3385754999</v>
+        <v>1189413.988310561</v>
       </c>
       <c r="W18" t="n">
-        <v>3980</v>
+        <v>4180</v>
       </c>
       <c r="X18" t="n">
-        <v>2630</v>
+        <v>2830</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA18" t="n">
-        <v>3350</v>
+        <v>3550</v>
       </c>
       <c r="AB18" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9480,7 +9660,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9493,28 +9673,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11286490.583745</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1813423.59354363</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2908477.6466996</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1805698.3</v>
+      </c>
+      <c r="AU18" t="n">
         <v>929953.999058489</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16630803.47634712</v>
+      <c r="AV18" t="n">
+        <v>7878651.546958677</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27218006.57000539</v>
       </c>
     </row>
     <row r="19">
@@ -9551,7 +9743,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>98</v>
@@ -9578,31 +9770,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9125124.441224679</v>
+        <v>16640411.11463754</v>
       </c>
       <c r="U19" t="n">
-        <v>1569559.34379866</v>
+        <v>2719689.437399534</v>
       </c>
       <c r="V19" t="n">
-        <v>1192834.8810433</v>
+        <v>2105340.700453827</v>
       </c>
       <c r="W19" t="n">
-        <v>3980</v>
+        <v>4180</v>
       </c>
       <c r="X19" t="n">
-        <v>3540</v>
+        <v>3740</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA19" t="n">
-        <v>4260</v>
+        <v>4460</v>
       </c>
       <c r="AB19" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9623,7 +9815,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9636,28 +9828,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18315880.95413</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2941548.92624592</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3469133.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6216391.5931195</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1805698.3</v>
+      </c>
+      <c r="AU19" t="n">
         <v>929953.999058489</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26832397.47943441</v>
+      <c r="AV19" t="n">
+        <v>16147536.08774992</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47532890.26030383</v>
       </c>
     </row>
     <row r="20">
@@ -9694,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>98</v>
@@ -9721,13 +9925,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>221577.298184</v>
+        <v>228258.298184</v>
       </c>
       <c r="U20" t="n">
-        <v>43218.6283388</v>
+        <v>44420.6283388</v>
       </c>
       <c r="V20" t="n">
-        <v>23237.98367596</v>
+        <v>24172.98367596</v>
       </c>
       <c r="W20" t="n">
         <v>1300</v>
@@ -9766,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9779,28 +9983,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>554583.1412000001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32682</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2819.7850254</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33824.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20351.05</v>
+      </c>
+      <c r="AU20" t="n">
         <v>19907.61363309</v>
       </c>
-      <c r="AS20" t="n">
-        <v>658514.2398584901</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>678865.28985849</v>
       </c>
     </row>
     <row r="21">
@@ -9837,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>98</v>
@@ -9864,13 +10076,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>291543.77981168</v>
+        <v>305341.6475076801</v>
       </c>
       <c r="U21" t="n">
-        <v>53857.01703328</v>
+        <v>56358.62801127999</v>
       </c>
       <c r="V21" t="n">
-        <v>32277.98736572</v>
+        <v>34159.78999972</v>
       </c>
       <c r="W21" t="n">
         <v>1900</v>
@@ -9909,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9922,28 +10134,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>656994.8589700001</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49023</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>37328.23604598</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>67649.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>74211.2985897</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35317.65</v>
+      </c>
+      <c r="AU21" t="n">
         <v>26401.829678222</v>
       </c>
-      <c r="AS21" t="n">
-        <v>856425.624694202</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>898304.973283902</v>
       </c>
     </row>
     <row r="22">
@@ -9980,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>98</v>
@@ -10007,31 +10227,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>409587.97243896</v>
+        <v>537935.5518994135</v>
       </c>
       <c r="U22" t="n">
-        <v>72901.39124774</v>
+        <v>92045.56341818093</v>
       </c>
       <c r="V22" t="n">
-        <v>48799.78508315</v>
+        <v>63710.9421212266</v>
       </c>
       <c r="W22" t="n">
-        <v>3780</v>
+        <v>3830</v>
       </c>
       <c r="X22" t="n">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="AA22" t="n">
-        <v>2370</v>
+        <v>2420</v>
       </c>
       <c r="AB22" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -10052,7 +10272,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -10065,28 +10285,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>831330.723185</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>90751.67337639</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>97518.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>105823.45723185</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47697.3</v>
+      </c>
+      <c r="AU22" t="n">
         <v>49373.6397150885</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1206664.336276479</v>
+      <c r="AV22" t="n">
+        <v>290779.1631735864</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1553445.856681915</v>
       </c>
     </row>
     <row r="23">
@@ -10123,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>98</v>
@@ -10150,31 +10382,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>475390.97649031</v>
+        <v>695266.6764844512</v>
       </c>
       <c r="U23" t="n">
-        <v>85645.02725754</v>
+        <v>122293.6097628572</v>
       </c>
       <c r="V23" t="n">
-        <v>58456.3518892</v>
+        <v>84542.6112703956</v>
       </c>
       <c r="W23" t="n">
-        <v>3980</v>
+        <v>4180</v>
       </c>
       <c r="X23" t="n">
-        <v>1790</v>
+        <v>1990</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA23" t="n">
-        <v>2510</v>
+        <v>2710</v>
       </c>
       <c r="AB23" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10195,7 +10427,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -10208,28 +10440,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>907833.1910799999</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>146375.73002652</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>152526</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>170666.1638216</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>87265.10000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>65197.916823716</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1416603.687930236</v>
+      <c r="AV23" t="n">
+        <v>519741.6469011045</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2041750.59865294</v>
       </c>
     </row>
     <row r="24">
@@ -10266,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>98</v>
@@ -10293,31 +10537,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>551163.6090679999</v>
+        <v>877075.447239448</v>
       </c>
       <c r="U24" t="n">
-        <v>103716.31976508</v>
+        <v>158864.2788986356</v>
       </c>
       <c r="V24" t="n">
-        <v>70716.58717644001</v>
+        <v>110335.0928259325</v>
       </c>
       <c r="W24" t="n">
-        <v>3980</v>
+        <v>4180</v>
       </c>
       <c r="X24" t="n">
-        <v>2070</v>
+        <v>2270</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA24" t="n">
-        <v>2790</v>
+        <v>2990</v>
       </c>
       <c r="AB24" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10338,7 +10582,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10351,28 +10595,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1028470.125095</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>165909.98037483</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>257621.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>298727.0050038</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>139435.5</v>
+      </c>
+      <c r="AU24" t="n">
         <v>78783.03624175201</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1688264.591711582</v>
+      <c r="AV24" t="n">
+        <v>756097.8586737635</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2624903.755389146</v>
       </c>
     </row>
     <row r="25">
@@ -10409,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>98</v>
@@ -10436,31 +10692,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>706706.11320126</v>
+        <v>1505035.644031827</v>
       </c>
       <c r="U25" t="n">
-        <v>140769.33923522</v>
+        <v>271905.6604807444</v>
       </c>
       <c r="V25" t="n">
-        <v>95805.4473515</v>
+        <v>191245.5434490705</v>
       </c>
       <c r="W25" t="n">
-        <v>3980</v>
+        <v>4180</v>
       </c>
       <c r="X25" t="n">
-        <v>2630</v>
+        <v>2830</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA25" t="n">
-        <v>3350</v>
+        <v>3550</v>
       </c>
       <c r="AB25" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10481,7 +10737,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10494,28 +10750,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1278908.049665</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>206420.20271091</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>570050.2439732001</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>204483.05</v>
+      </c>
+      <c r="AU25" t="n">
         <v>108934.373819493</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2245133.876195403</v>
+      <c r="AV25" t="n">
+        <v>1947621.006012516</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4499484.576181119</v>
       </c>
     </row>
   </sheetData>
